--- a/data_samples/teachers.xlsx
+++ b/data_samples/teachers.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>رياضيات</t>
+          <t>الرياضيات</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>رياضيات</t>
+          <t>الرياضيات</t>
         </is>
       </c>
       <c r="C6" t="n">
